--- a/data/turm/MEC-3B/MEC-3B_(3)bimestre.xlsx
+++ b/data/turm/MEC-3B/MEC-3B_(3)bimestre.xlsx
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ludoff-Comam. Pneumáticos_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ludoff-Coman. Hidráulicos_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleison-Elemaq.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Leandro-Mec. Manut. Equip. Ind._(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Leandro-M. S. Ar Cond._(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(3)bimestre</t>
+          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleison-Elemaq.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>Ivan-Trat. Térmicos_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rogério-Retificação_(3)bimestre</t>
+          <t>Leandro-M. S. Ar Cond._(3)bimestre</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(3)bimestre</t>
+          <t>Vinicius-Metrologia 2_(3)bimestre</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cleison-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>Joel Lima-Tec. Fundição_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rogério-Retificação_(3)bimestre</t>
+          <t>Humberto-Cont. Lóg. Prog. CLP_(3)bimestre</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(3)bimestre</t>
+          <t>Vinicius-Metrologia 2_(3)bimestre</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cleison-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Comam. Pneumáticos_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Victor-Usin. CNC_(3)bimestre</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Rogério-Retificação_(3)bimestre</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Leandro-M. S. Ar Cond._(3)bimestre</t>
+          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vinicius-Metrologia 2_(3)bimestre</t>
+          <t>Ludoff-Comam. Pneumáticos_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -665,17 +665,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Victor-Usin. CNC_(3)bimestre</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Rogério-Retificação_(3)bimestre</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Leandro-M. S. Ar Cond._(3)bimestre</t>
+          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vinicius-Metrologia 2_(3)bimestre</t>
+          <t>Ludoff-Comam. Pneumáticos_(3)bimestre</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3B/MEC-3B_(3)bimestre.xlsx
+++ b/data/turm/MEC-3B/MEC-3B_(3)bimestre.xlsx
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Humberto-Cont. Lóg. Prog. CLP_(3)bimestre</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cleison-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Leandro-Mec. Manut. Equip. Ind._(3)bimestre</t>
+          <t>Rogério-Retificação_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
+          <t>Humberto-Cont. Lóg. Prog. CLP_(3)bimestre</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cleison-Elemaq.</t>
+          <t>Valmir-Calderaria_(3)bimestre</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ivan-Trat. Térmicos_(3)bimestre</t>
+          <t>Rogério-Retificação_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Leandro-M. S. Ar Cond._(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vinicius-Metrologia 2_(3)bimestre</t>
+          <t>Joel Lima-Tec. Fundição_(3)bimestre</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Valmir-Calderaria_(3)bimestre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Joel Lima-Tec. Fundição_(3)bimestre</t>
+          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleison-Elemaq.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Humberto-Cont. Lóg. Prog. CLP_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vinicius-Metrologia 2_(3)bimestre</t>
+          <t>Joel Lima-Tec. Fundição_(3)bimestre</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Valmir-Calderaria_(3)bimestre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ludoff-Comam. Pneumáticos_(3)bimestre</t>
+          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleison-Elemaq.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Victor-Usin. CNC_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
+          <t>Joel Lima-Tec. Fundição_(3)bimestre</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Valmir-Calderaria_(3)bimestre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ludoff-Comam. Pneumáticos_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Victor-Usin. CNC_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
+          <t>Ivan-Trat. Térmicos_(3)bimestre</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Coman. Hidráulicos_(3)bimestre</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ludoff-Comam. Pneumáticos_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3B/MEC-3B_(3)bimestre.xlsx
+++ b/data/turm/MEC-3B/MEC-3B_(3)bimestre.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anderson J.-M. A. Comp; Cad / CAM_(3)bimestre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Humberto-Cont. Lóg. Prog. CLP_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rogério-Retificação_(3)bimestre</t>
+          <t>Joel Lima-Tec. Fundição_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anderson J.-M. A. Comp; Cad / CAM_(3)bimestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Humberto-Cont. Lóg. Prog. CLP_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(3)bimestre</t>
+          <t>Anselmo-M. Motor Endot._(3)bimestre</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rogério-Retificação_(3)bimestre</t>
+          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>Valmir-Calderaria_(3)bimestre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Joel Lima-Tec. Fundição_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(3)bimestre</t>
+          <t>Anselmo-M. Motor Endot._(3)bimestre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cleison-Elemaq.</t>
+          <t>Valmir-Calderaria_(3)bimestre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joel Lima-Tec. Fundição_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gisele-Ens. Dest. não Dest._(3)bimestre</t>
+          <t>Vinicius-Metrologia 2_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Victor-Usin. CNC_(3)bimestre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Cleison-Elemaq.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Joel Lima-Tec. Fundição_(3)bimestre</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Valmir-Calderaria_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>Leandro-Mec. Manut. Equip. Ind._(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Victor-Usin. CNC_(3)bimestre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ivan-Trat. Térmicos_(3)bimestre</t>
+          <t>Cleison-Elemaq.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>Leandro-Mec. Manut. Equip. Ind._(3)bimestre</t>
         </is>
       </c>
     </row>
